--- a/www/IndicatorsPerCountry/Colombia_GDPperCapita_TerritorialRef_1946_2012_CCode_170.xlsx
+++ b/www/IndicatorsPerCountry/Colombia_GDPperCapita_TerritorialRef_1946_2012_CCode_170.xlsx
@@ -501,13 +501,13 @@
     <t>Bolt, Jutta and Jan Luiten van Zanden (2015). GDP per Capita. http://hdl.handle.net/10622/8FCYOX, accessed via the Clio Infra website.</t>
   </si>
   <si>
-    <t>https://www.clio-infra.eu/citations/DOI-10622_8FCYOX.xml</t>
-  </si>
-  <si>
-    <t>https://www.clio-infra.eu/citations/DOI-10622_8FCYOX.ris</t>
-  </si>
-  <si>
-    <t>https://www.clio-infra.eu/citations/DOI-10622_8FCYOX.bib</t>
+    <t>https://www.clio-infra.eu/Citations/DOI-10622_8FCYOX.xml</t>
+  </si>
+  <si>
+    <t>https://www.clio-infra.eu/Citations/DOI-10622_8FCYOX.ris</t>
+  </si>
+  <si>
+    <t>https://www.clio-infra.eu/Citations/DOI-10622_8FCYOX.bib</t>
   </si>
 </sst>
 </file>

--- a/www/IndicatorsPerCountry/Colombia_GDPperCapita_TerritorialRef_1946_2012_CCode_170.xlsx
+++ b/www/IndicatorsPerCountry/Colombia_GDPperCapita_TerritorialRef_1946_2012_CCode_170.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="650" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="668" uniqueCount="158">
   <si>
     <t>Country Code</t>
   </si>
@@ -36,442 +36,421 @@
     <t>GDP per Capita</t>
   </si>
   <si>
-    <t>590.71881076</t>
+    <t>942</t>
   </si>
   <si>
     <t/>
   </si>
   <si>
-    <t>533.026527756</t>
-  </si>
-  <si>
-    <t>491.633816701</t>
-  </si>
-  <si>
-    <t>572.728181053</t>
-  </si>
-  <si>
-    <t>676.003055201</t>
-  </si>
-  <si>
-    <t>679.383070477</t>
-  </si>
-  <si>
-    <t>682.77998583</t>
-  </si>
-  <si>
-    <t>686.193885759</t>
-  </si>
-  <si>
-    <t>689.624855187</t>
-  </si>
-  <si>
-    <t>693.072979463</t>
-  </si>
-  <si>
-    <t>696.538344361</t>
-  </si>
-  <si>
-    <t>700.021036083</t>
-  </si>
-  <si>
-    <t>703.521141263</t>
-  </si>
-  <si>
-    <t>707.038746969</t>
-  </si>
-  <si>
-    <t>710.573940704</t>
-  </si>
-  <si>
-    <t>714.126810408</t>
-  </si>
-  <si>
-    <t>717.69744446</t>
-  </si>
-  <si>
-    <t>721.285931682</t>
-  </si>
-  <si>
-    <t>724.89236134</t>
-  </si>
-  <si>
-    <t>728.516823147</t>
-  </si>
-  <si>
-    <t>732.159407263</t>
-  </si>
-  <si>
-    <t>728.498610226</t>
-  </si>
-  <si>
-    <t>724.856117175</t>
-  </si>
-  <si>
-    <t>721.231836589</t>
-  </si>
-  <si>
-    <t>717.625677407</t>
-  </si>
-  <si>
-    <t>714.03754902</t>
-  </si>
-  <si>
-    <t>710.467361274</t>
-  </si>
-  <si>
-    <t>706.915024468</t>
-  </si>
-  <si>
-    <t>703.380449346</t>
-  </si>
-  <si>
-    <t>699.863547099</t>
-  </si>
-  <si>
-    <t>696.364229363</t>
-  </si>
-  <si>
-    <t>692.882408217</t>
-  </si>
-  <si>
-    <t>689.417996176</t>
-  </si>
-  <si>
-    <t>685.970906195</t>
-  </si>
-  <si>
-    <t>682.541051664</t>
-  </si>
-  <si>
-    <t>679.128346405</t>
-  </si>
-  <si>
-    <t>675.732704673</t>
-  </si>
-  <si>
-    <t>672.35404115</t>
-  </si>
-  <si>
-    <t>668.992270944</t>
-  </si>
-  <si>
-    <t>665.64730959</t>
-  </si>
-  <si>
-    <t>671.478588796</t>
-  </si>
-  <si>
-    <t>702.333921199</t>
-  </si>
-  <si>
-    <t>727.551636629</t>
-  </si>
-  <si>
-    <t>751.482920317</t>
-  </si>
-  <si>
-    <t>779.033257082</t>
-  </si>
-  <si>
-    <t>802.165471427</t>
-  </si>
-  <si>
-    <t>825.653649036</t>
-  </si>
-  <si>
-    <t>845.218901006</t>
-  </si>
-  <si>
-    <t>860.556842452</t>
-  </si>
-  <si>
-    <t>883.119862724</t>
-  </si>
-  <si>
-    <t>910.825469361</t>
-  </si>
-  <si>
-    <t>930.021514404</t>
-  </si>
-  <si>
-    <t>962.921238095</t>
-  </si>
-  <si>
-    <t>1022.26907331</t>
-  </si>
-  <si>
-    <t>1070.51542046</t>
-  </si>
-  <si>
-    <t>1109.71368239</t>
-  </si>
-  <si>
-    <t>1161.39153632</t>
-  </si>
-  <si>
-    <t>1211.01670459</t>
-  </si>
-  <si>
-    <t>1255.01307759</t>
-  </si>
-  <si>
-    <t>1254.7685708</t>
-  </si>
-  <si>
-    <t>1340.2445908</t>
-  </si>
-  <si>
-    <t>1423.83840586</t>
-  </si>
-  <si>
-    <t>1489.68931387</t>
-  </si>
-  <si>
-    <t>1504.70351748</t>
-  </si>
-  <si>
-    <t>1474.04125473</t>
-  </si>
-  <si>
-    <t>1447.73878539</t>
-  </si>
-  <si>
-    <t>1510.78275133</t>
-  </si>
-  <si>
-    <t>1576.67946549</t>
-  </si>
-  <si>
-    <t>1525.56916865</t>
-  </si>
-  <si>
-    <t>1676.53845173</t>
-  </si>
-  <si>
-    <t>1744.44773947</t>
-  </si>
-  <si>
-    <t>1750.83675553</t>
-  </si>
-  <si>
-    <t>1842.99480998</t>
-  </si>
-  <si>
-    <t>1904.8725699</t>
-  </si>
-  <si>
-    <t>1895.13730824</t>
-  </si>
-  <si>
-    <t>1877.19719309</t>
-  </si>
-  <si>
-    <t>1831.60185341</t>
-  </si>
-  <si>
-    <t>1791.58754426</t>
-  </si>
-  <si>
-    <t>1862.5978615</t>
-  </si>
-  <si>
-    <t>1899.27023749</t>
-  </si>
-  <si>
-    <t>2017.03648916</t>
-  </si>
-  <si>
-    <t>2041.95506952</t>
-  </si>
-  <si>
-    <t>2050.37252842</t>
-  </si>
-  <si>
-    <t>2107.33717199</t>
-  </si>
-  <si>
-    <t>2152.84129328</t>
-  </si>
-  <si>
-    <t>2150.10447137</t>
-  </si>
-  <si>
-    <t>2214.43665339</t>
-  </si>
-  <si>
-    <t>2276.61705028</t>
-  </si>
-  <si>
-    <t>2358.45562412</t>
-  </si>
-  <si>
-    <t>2372.75824499</t>
-  </si>
-  <si>
-    <t>2390.63601154</t>
-  </si>
-  <si>
-    <t>2399.97354686</t>
-  </si>
-  <si>
-    <t>2382.5605048</t>
-  </si>
-  <si>
-    <t>2473.46849463</t>
-  </si>
-  <si>
-    <t>2496.81449447</t>
-  </si>
-  <si>
-    <t>2539.85706833</t>
-  </si>
-  <si>
-    <t>2593.78590743</t>
-  </si>
-  <si>
-    <t>2597.22762152</t>
-  </si>
-  <si>
-    <t>2674.90326147</t>
-  </si>
-  <si>
-    <t>2688.80883077</t>
-  </si>
-  <si>
-    <t>2750.06442127</t>
-  </si>
-  <si>
-    <t>2784.25039593</t>
-  </si>
-  <si>
-    <t>2873.68185628</t>
-  </si>
-  <si>
-    <t>2976.45231188</t>
-  </si>
-  <si>
-    <t>3094.21643593</t>
-  </si>
-  <si>
-    <t>3194.25929992</t>
-  </si>
-  <si>
-    <t>3355.24859501</t>
-  </si>
-  <si>
-    <t>3499.37975826</t>
-  </si>
-  <si>
-    <t>3617.67946436</t>
-  </si>
-  <si>
-    <t>3620.60103627</t>
-  </si>
-  <si>
-    <t>3713.28841627</t>
-  </si>
-  <si>
-    <t>3793.26406306</t>
-  </si>
-  <si>
-    <t>4041.68132942</t>
-  </si>
-  <si>
-    <t>4177.12488493</t>
-  </si>
-  <si>
-    <t>4257.25658068</t>
-  </si>
-  <si>
-    <t>4254.60224141</t>
-  </si>
-  <si>
-    <t>4202.47250773</t>
-  </si>
-  <si>
-    <t>4175.22403795</t>
-  </si>
-  <si>
-    <t>4228.65686005</t>
-  </si>
-  <si>
-    <t>4271.7493613</t>
-  </si>
-  <si>
-    <t>4435.65789474</t>
-  </si>
-  <si>
-    <t>4577.21796276</t>
-  </si>
-  <si>
-    <t>4669.46610678</t>
-  </si>
-  <si>
-    <t>4726.09651159</t>
-  </si>
-  <si>
-    <t>4825.74263434</t>
-  </si>
-  <si>
-    <t>4840.18683615</t>
-  </si>
-  <si>
-    <t>4950.21092768</t>
-  </si>
-  <si>
-    <t>5131.01703428</t>
-  </si>
-  <si>
-    <t>5292.59837833</t>
-  </si>
-  <si>
-    <t>5469.75510267</t>
-  </si>
-  <si>
-    <t>5497.02751635</t>
-  </si>
-  <si>
-    <t>5606.69521618</t>
-  </si>
-  <si>
-    <t>5562.83567984</t>
-  </si>
-  <si>
-    <t>5269.37848634</t>
-  </si>
-  <si>
-    <t>5375.20543066</t>
-  </si>
-  <si>
-    <t>5409.49440489</t>
-  </si>
-  <si>
-    <t>5476.33936208</t>
-  </si>
-  <si>
-    <t>5613.90294276</t>
-  </si>
-  <si>
-    <t>5830.76357033</t>
-  </si>
-  <si>
-    <t>6021.95630219</t>
-  </si>
-  <si>
-    <t>6339.93606494</t>
-  </si>
-  <si>
-    <t>6689.75319949</t>
-  </si>
-  <si>
-    <t>6839.71091191</t>
-  </si>
-  <si>
-    <t>6853.82281123</t>
-  </si>
-  <si>
-    <t>7062.50470689</t>
+    <t>850</t>
+  </si>
+  <si>
+    <t>784</t>
+  </si>
+  <si>
+    <t>913</t>
+  </si>
+  <si>
+    <t>1078</t>
+  </si>
+  <si>
+    <t>1082</t>
+  </si>
+  <si>
+    <t>1089</t>
+  </si>
+  <si>
+    <t>1093</t>
+  </si>
+  <si>
+    <t>1100</t>
+  </si>
+  <si>
+    <t>1105</t>
+  </si>
+  <si>
+    <t>1111</t>
+  </si>
+  <si>
+    <t>1116</t>
+  </si>
+  <si>
+    <t>1122</t>
+  </si>
+  <si>
+    <t>1127</t>
+  </si>
+  <si>
+    <t>1133</t>
+  </si>
+  <si>
+    <t>1138</t>
+  </si>
+  <si>
+    <t>1144</t>
+  </si>
+  <si>
+    <t>1149</t>
+  </si>
+  <si>
+    <t>1156</t>
+  </si>
+  <si>
+    <t>1162</t>
+  </si>
+  <si>
+    <t>1167</t>
+  </si>
+  <si>
+    <t>1160</t>
+  </si>
+  <si>
+    <t>1132</t>
+  </si>
+  <si>
+    <t>1121</t>
+  </si>
+  <si>
+    <t>1109</t>
+  </si>
+  <si>
+    <t>1098</t>
+  </si>
+  <si>
+    <t>1071</t>
+  </si>
+  <si>
+    <t>1066</t>
+  </si>
+  <si>
+    <t>1062</t>
+  </si>
+  <si>
+    <t>1070</t>
+  </si>
+  <si>
+    <t>1119</t>
+  </si>
+  <si>
+    <t>1197</t>
+  </si>
+  <si>
+    <t>1242</t>
+  </si>
+  <si>
+    <t>1278</t>
+  </si>
+  <si>
+    <t>1317</t>
+  </si>
+  <si>
+    <t>1347</t>
+  </si>
+  <si>
+    <t>1372</t>
+  </si>
+  <si>
+    <t>1407</t>
+  </si>
+  <si>
+    <t>1452</t>
+  </si>
+  <si>
+    <t>1482</t>
+  </si>
+  <si>
+    <t>1535</t>
+  </si>
+  <si>
+    <t>1629</t>
+  </si>
+  <si>
+    <t>1707</t>
+  </si>
+  <si>
+    <t>1769</t>
+  </si>
+  <si>
+    <t>1851</t>
+  </si>
+  <si>
+    <t>1930</t>
+  </si>
+  <si>
+    <t>2000</t>
+  </si>
+  <si>
+    <t>2136</t>
+  </si>
+  <si>
+    <t>2270</t>
+  </si>
+  <si>
+    <t>2375</t>
+  </si>
+  <si>
+    <t>2399</t>
+  </si>
+  <si>
+    <t>2350</t>
+  </si>
+  <si>
+    <t>2308</t>
+  </si>
+  <si>
+    <t>2409</t>
+  </si>
+  <si>
+    <t>2514</t>
+  </si>
+  <si>
+    <t>2432</t>
+  </si>
+  <si>
+    <t>2673</t>
+  </si>
+  <si>
+    <t>2780</t>
+  </si>
+  <si>
+    <t>2791</t>
+  </si>
+  <si>
+    <t>2938</t>
+  </si>
+  <si>
+    <t>3037</t>
+  </si>
+  <si>
+    <t>3021</t>
+  </si>
+  <si>
+    <t>2992</t>
+  </si>
+  <si>
+    <t>2920</t>
+  </si>
+  <si>
+    <t>2856</t>
+  </si>
+  <si>
+    <t>2970</t>
+  </si>
+  <si>
+    <t>3027</t>
+  </si>
+  <si>
+    <t>3215</t>
+  </si>
+  <si>
+    <t>3255</t>
+  </si>
+  <si>
+    <t>3268</t>
+  </si>
+  <si>
+    <t>3359</t>
+  </si>
+  <si>
+    <t>3432</t>
+  </si>
+  <si>
+    <t>3427</t>
+  </si>
+  <si>
+    <t>3529</t>
+  </si>
+  <si>
+    <t>3629</t>
+  </si>
+  <si>
+    <t>3759</t>
+  </si>
+  <si>
+    <t>3783</t>
+  </si>
+  <si>
+    <t>3811</t>
+  </si>
+  <si>
+    <t>3826</t>
+  </si>
+  <si>
+    <t>3798</t>
+  </si>
+  <si>
+    <t>3942</t>
+  </si>
+  <si>
+    <t>3980</t>
+  </si>
+  <si>
+    <t>4049</t>
+  </si>
+  <si>
+    <t>4135</t>
+  </si>
+  <si>
+    <t>4140</t>
+  </si>
+  <si>
+    <t>4264</t>
+  </si>
+  <si>
+    <t>4286</t>
+  </si>
+  <si>
+    <t>4383</t>
+  </si>
+  <si>
+    <t>4438</t>
+  </si>
+  <si>
+    <t>4581</t>
+  </si>
+  <si>
+    <t>4744</t>
+  </si>
+  <si>
+    <t>4932</t>
+  </si>
+  <si>
+    <t>5091</t>
+  </si>
+  <si>
+    <t>5348</t>
+  </si>
+  <si>
+    <t>5577</t>
+  </si>
+  <si>
+    <t>5767</t>
+  </si>
+  <si>
+    <t>5772</t>
+  </si>
+  <si>
+    <t>5918</t>
+  </si>
+  <si>
+    <t>6046</t>
+  </si>
+  <si>
+    <t>6443</t>
+  </si>
+  <si>
+    <t>6658</t>
+  </si>
+  <si>
+    <t>6786</t>
+  </si>
+  <si>
+    <t>6782</t>
+  </si>
+  <si>
+    <t>6698</t>
+  </si>
+  <si>
+    <t>6655</t>
+  </si>
+  <si>
+    <t>6741</t>
+  </si>
+  <si>
+    <t>6809</t>
+  </si>
+  <si>
+    <t>7071</t>
+  </si>
+  <si>
+    <t>7296</t>
+  </si>
+  <si>
+    <t>7442</t>
+  </si>
+  <si>
+    <t>7533</t>
+  </si>
+  <si>
+    <t>7693</t>
+  </si>
+  <si>
+    <t>7713.02202563815</t>
+  </si>
+  <si>
+    <t>7888.10549029318</t>
+  </si>
+  <si>
+    <t>8180.87053014339</t>
+  </si>
+  <si>
+    <t>8447.85724015907</t>
+  </si>
+  <si>
+    <t>8735.88332305589</t>
+  </si>
+  <si>
+    <t>8770.58320363863</t>
+  </si>
+  <si>
+    <t>8952.47296753857</t>
+  </si>
+  <si>
+    <t>8863.26137405975</t>
+  </si>
+  <si>
+    <t>8382.13986338989</t>
+  </si>
+  <si>
+    <t>8496.79186144236</t>
+  </si>
+  <si>
+    <t>8528.03353336023</t>
+  </si>
+  <si>
+    <t>8630.54242975466</t>
+  </si>
+  <si>
+    <t>8855.21744466881</t>
+  </si>
+  <si>
+    <t>9211.27911250038</t>
+  </si>
+  <si>
+    <t>9524.72270675406</t>
+  </si>
+  <si>
+    <t>10039.6831173261</t>
+  </si>
+  <si>
+    <t>10602.3048784126</t>
+  </si>
+  <si>
+    <t>10846.7376868879</t>
+  </si>
+  <si>
+    <t>10894.1022875402</t>
+  </si>
+  <si>
+    <t>11191.6864065695</t>
+  </si>
+  <si>
+    <t>11788</t>
+  </si>
+  <si>
+    <t>12123</t>
+  </si>
+  <si>
+    <t>12568</t>
+  </si>
+  <si>
+    <t>12972</t>
+  </si>
+  <si>
+    <t>13218</t>
+  </si>
+  <si>
+    <t>13326</t>
   </si>
   <si>
     <t>Description</t>
@@ -2085,7 +2064,7 @@
         <v>1888.0</v>
       </c>
       <c r="E90" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="91">
@@ -2102,7 +2081,7 @@
         <v>1889.0</v>
       </c>
       <c r="E91" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
     </row>
     <row r="92">
@@ -2119,7 +2098,7 @@
         <v>1890.0</v>
       </c>
       <c r="E92" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
     </row>
     <row r="93">
@@ -2136,7 +2115,7 @@
         <v>1891.0</v>
       </c>
       <c r="E93" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
     </row>
     <row r="94">
@@ -2153,7 +2132,7 @@
         <v>1892.0</v>
       </c>
       <c r="E94" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="95">
@@ -2170,7 +2149,7 @@
         <v>1893.0</v>
       </c>
       <c r="E95" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
     </row>
     <row r="96">
@@ -2187,7 +2166,7 @@
         <v>1894.0</v>
       </c>
       <c r="E96" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
     </row>
     <row r="97">
@@ -2204,7 +2183,7 @@
         <v>1895.0</v>
       </c>
       <c r="E97" t="s">
-        <v>37</v>
+        <v>19</v>
       </c>
     </row>
     <row r="98">
@@ -2221,7 +2200,7 @@
         <v>1896.0</v>
       </c>
       <c r="E98" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
     </row>
     <row r="99">
@@ -2238,7 +2217,7 @@
         <v>1897.0</v>
       </c>
       <c r="E99" t="s">
-        <v>39</v>
+        <v>17</v>
       </c>
     </row>
     <row r="100">
@@ -2255,7 +2234,7 @@
         <v>1898.0</v>
       </c>
       <c r="E100" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
     </row>
     <row r="101">
@@ -2272,7 +2251,7 @@
         <v>1899.0</v>
       </c>
       <c r="E101" t="s">
-        <v>41</v>
+        <v>15</v>
       </c>
     </row>
     <row r="102">
@@ -2289,7 +2268,7 @@
         <v>1900.0</v>
       </c>
       <c r="E102" t="s">
-        <v>42</v>
+        <v>14</v>
       </c>
     </row>
     <row r="103">
@@ -2306,7 +2285,7 @@
         <v>1901.0</v>
       </c>
       <c r="E103" t="s">
-        <v>43</v>
+        <v>13</v>
       </c>
     </row>
     <row r="104">
@@ -2323,7 +2302,7 @@
         <v>1902.0</v>
       </c>
       <c r="E104" t="s">
-        <v>44</v>
+        <v>12</v>
       </c>
     </row>
     <row r="105">
@@ -2340,7 +2319,7 @@
         <v>1903.0</v>
       </c>
       <c r="E105" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
     </row>
     <row r="106">
@@ -2357,7 +2336,7 @@
         <v>1904.0</v>
       </c>
       <c r="E106" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
     </row>
     <row r="107">
@@ -2374,7 +2353,7 @@
         <v>1905.0</v>
       </c>
       <c r="E107" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
     </row>
     <row r="108">
@@ -2391,7 +2370,7 @@
         <v>1906.0</v>
       </c>
       <c r="E108" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
     </row>
     <row r="109">
@@ -2408,7 +2387,7 @@
         <v>1907.0</v>
       </c>
       <c r="E109" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
     </row>
     <row r="110">
@@ -2425,7 +2404,7 @@
         <v>1908.0</v>
       </c>
       <c r="E110" t="s">
-        <v>50</v>
+        <v>29</v>
       </c>
     </row>
     <row r="111">
@@ -2442,7 +2421,7 @@
         <v>1909.0</v>
       </c>
       <c r="E111" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
     </row>
     <row r="112">
@@ -2459,7 +2438,7 @@
         <v>1910.0</v>
       </c>
       <c r="E112" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
     </row>
     <row r="113">
@@ -2476,7 +2455,7 @@
         <v>1911.0</v>
       </c>
       <c r="E113" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
     </row>
     <row r="114">
@@ -2493,7 +2472,7 @@
         <v>1912.0</v>
       </c>
       <c r="E114" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
     </row>
     <row r="115">
@@ -2510,7 +2489,7 @@
         <v>1913.0</v>
       </c>
       <c r="E115" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
     </row>
     <row r="116">
@@ -2527,7 +2506,7 @@
         <v>1914.0</v>
       </c>
       <c r="E116" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
     </row>
     <row r="117">
@@ -2544,7 +2523,7 @@
         <v>1915.0</v>
       </c>
       <c r="E117" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
     </row>
     <row r="118">
@@ -2561,7 +2540,7 @@
         <v>1916.0</v>
       </c>
       <c r="E118" t="s">
-        <v>58</v>
+        <v>46</v>
       </c>
     </row>
     <row r="119">
@@ -2578,7 +2557,7 @@
         <v>1917.0</v>
       </c>
       <c r="E119" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
     </row>
     <row r="120">
@@ -2595,7 +2574,7 @@
         <v>1918.0</v>
       </c>
       <c r="E120" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
     </row>
     <row r="121">
@@ -2612,7 +2591,7 @@
         <v>1919.0</v>
       </c>
       <c r="E121" t="s">
-        <v>61</v>
+        <v>49</v>
       </c>
     </row>
     <row r="122">
@@ -2629,7 +2608,7 @@
         <v>1920.0</v>
       </c>
       <c r="E122" t="s">
-        <v>62</v>
+        <v>50</v>
       </c>
     </row>
     <row r="123">
@@ -2646,7 +2625,7 @@
         <v>1921.0</v>
       </c>
       <c r="E123" t="s">
-        <v>63</v>
+        <v>51</v>
       </c>
     </row>
     <row r="124">
@@ -2663,7 +2642,7 @@
         <v>1922.0</v>
       </c>
       <c r="E124" t="s">
-        <v>64</v>
+        <v>52</v>
       </c>
     </row>
     <row r="125">
@@ -2680,7 +2659,7 @@
         <v>1923.0</v>
       </c>
       <c r="E125" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
     </row>
     <row r="126">
@@ -2697,7 +2676,7 @@
         <v>1924.0</v>
       </c>
       <c r="E126" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
     </row>
     <row r="127">
@@ -2714,7 +2693,7 @@
         <v>1925.0</v>
       </c>
       <c r="E127" t="s">
-        <v>67</v>
+        <v>54</v>
       </c>
     </row>
     <row r="128">
@@ -2731,7 +2710,7 @@
         <v>1926.0</v>
       </c>
       <c r="E128" t="s">
-        <v>68</v>
+        <v>55</v>
       </c>
     </row>
     <row r="129">
@@ -2748,7 +2727,7 @@
         <v>1927.0</v>
       </c>
       <c r="E129" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
     </row>
     <row r="130">
@@ -2765,7 +2744,7 @@
         <v>1928.0</v>
       </c>
       <c r="E130" t="s">
-        <v>70</v>
+        <v>57</v>
       </c>
     </row>
     <row r="131">
@@ -2782,7 +2761,7 @@
         <v>1929.0</v>
       </c>
       <c r="E131" t="s">
-        <v>71</v>
+        <v>58</v>
       </c>
     </row>
     <row r="132">
@@ -2799,7 +2778,7 @@
         <v>1930.0</v>
       </c>
       <c r="E132" t="s">
-        <v>72</v>
+        <v>59</v>
       </c>
     </row>
     <row r="133">
@@ -2816,7 +2795,7 @@
         <v>1931.0</v>
       </c>
       <c r="E133" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
     </row>
     <row r="134">
@@ -2833,7 +2812,7 @@
         <v>1932.0</v>
       </c>
       <c r="E134" t="s">
-        <v>74</v>
+        <v>61</v>
       </c>
     </row>
     <row r="135">
@@ -2850,7 +2829,7 @@
         <v>1933.0</v>
       </c>
       <c r="E135" t="s">
-        <v>75</v>
+        <v>62</v>
       </c>
     </row>
     <row r="136">
@@ -2867,7 +2846,7 @@
         <v>1934.0</v>
       </c>
       <c r="E136" t="s">
-        <v>76</v>
+        <v>63</v>
       </c>
     </row>
     <row r="137">
@@ -2884,7 +2863,7 @@
         <v>1935.0</v>
       </c>
       <c r="E137" t="s">
-        <v>77</v>
+        <v>64</v>
       </c>
     </row>
     <row r="138">
@@ -2901,7 +2880,7 @@
         <v>1936.0</v>
       </c>
       <c r="E138" t="s">
-        <v>78</v>
+        <v>65</v>
       </c>
     </row>
     <row r="139">
@@ -2918,7 +2897,7 @@
         <v>1937.0</v>
       </c>
       <c r="E139" t="s">
-        <v>79</v>
+        <v>66</v>
       </c>
     </row>
     <row r="140">
@@ -2935,7 +2914,7 @@
         <v>1938.0</v>
       </c>
       <c r="E140" t="s">
-        <v>80</v>
+        <v>67</v>
       </c>
     </row>
     <row r="141">
@@ -2952,7 +2931,7 @@
         <v>1939.0</v>
       </c>
       <c r="E141" t="s">
-        <v>81</v>
+        <v>68</v>
       </c>
     </row>
     <row r="142">
@@ -2969,7 +2948,7 @@
         <v>1940.0</v>
       </c>
       <c r="E142" t="s">
-        <v>82</v>
+        <v>69</v>
       </c>
     </row>
     <row r="143">
@@ -2986,7 +2965,7 @@
         <v>1941.0</v>
       </c>
       <c r="E143" t="s">
-        <v>83</v>
+        <v>70</v>
       </c>
     </row>
     <row r="144">
@@ -3003,7 +2982,7 @@
         <v>1942.0</v>
       </c>
       <c r="E144" t="s">
-        <v>84</v>
+        <v>71</v>
       </c>
     </row>
     <row r="145">
@@ -3020,7 +2999,7 @@
         <v>1943.0</v>
       </c>
       <c r="E145" t="s">
-        <v>85</v>
+        <v>72</v>
       </c>
     </row>
     <row r="146">
@@ -3037,7 +3016,7 @@
         <v>1944.0</v>
       </c>
       <c r="E146" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
     </row>
     <row r="147">
@@ -3054,7 +3033,7 @@
         <v>1945.0</v>
       </c>
       <c r="E147" t="s">
-        <v>87</v>
+        <v>74</v>
       </c>
     </row>
     <row r="148">
@@ -3071,7 +3050,7 @@
         <v>1946.0</v>
       </c>
       <c r="E148" t="s">
-        <v>88</v>
+        <v>75</v>
       </c>
     </row>
     <row r="149">
@@ -3088,7 +3067,7 @@
         <v>1947.0</v>
       </c>
       <c r="E149" t="s">
-        <v>89</v>
+        <v>76</v>
       </c>
     </row>
     <row r="150">
@@ -3105,7 +3084,7 @@
         <v>1948.0</v>
       </c>
       <c r="E150" t="s">
-        <v>90</v>
+        <v>77</v>
       </c>
     </row>
     <row r="151">
@@ -3122,7 +3101,7 @@
         <v>1949.0</v>
       </c>
       <c r="E151" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
     </row>
     <row r="152">
@@ -3139,7 +3118,7 @@
         <v>1950.0</v>
       </c>
       <c r="E152" t="s">
-        <v>92</v>
+        <v>79</v>
       </c>
     </row>
     <row r="153">
@@ -3156,7 +3135,7 @@
         <v>1951.0</v>
       </c>
       <c r="E153" t="s">
-        <v>93</v>
+        <v>80</v>
       </c>
     </row>
     <row r="154">
@@ -3173,7 +3152,7 @@
         <v>1952.0</v>
       </c>
       <c r="E154" t="s">
-        <v>94</v>
+        <v>81</v>
       </c>
     </row>
     <row r="155">
@@ -3190,7 +3169,7 @@
         <v>1953.0</v>
       </c>
       <c r="E155" t="s">
-        <v>95</v>
+        <v>82</v>
       </c>
     </row>
     <row r="156">
@@ -3207,7 +3186,7 @@
         <v>1954.0</v>
       </c>
       <c r="E156" t="s">
-        <v>96</v>
+        <v>83</v>
       </c>
     </row>
     <row r="157">
@@ -3224,7 +3203,7 @@
         <v>1955.0</v>
       </c>
       <c r="E157" t="s">
-        <v>97</v>
+        <v>84</v>
       </c>
     </row>
     <row r="158">
@@ -3241,7 +3220,7 @@
         <v>1956.0</v>
       </c>
       <c r="E158" t="s">
-        <v>98</v>
+        <v>85</v>
       </c>
     </row>
     <row r="159">
@@ -3258,7 +3237,7 @@
         <v>1957.0</v>
       </c>
       <c r="E159" t="s">
-        <v>99</v>
+        <v>86</v>
       </c>
     </row>
     <row r="160">
@@ -3275,7 +3254,7 @@
         <v>1958.0</v>
       </c>
       <c r="E160" t="s">
-        <v>100</v>
+        <v>87</v>
       </c>
     </row>
     <row r="161">
@@ -3292,7 +3271,7 @@
         <v>1959.0</v>
       </c>
       <c r="E161" t="s">
-        <v>101</v>
+        <v>88</v>
       </c>
     </row>
     <row r="162">
@@ -3309,7 +3288,7 @@
         <v>1960.0</v>
       </c>
       <c r="E162" t="s">
-        <v>102</v>
+        <v>89</v>
       </c>
     </row>
     <row r="163">
@@ -3326,7 +3305,7 @@
         <v>1961.0</v>
       </c>
       <c r="E163" t="s">
-        <v>103</v>
+        <v>90</v>
       </c>
     </row>
     <row r="164">
@@ -3343,7 +3322,7 @@
         <v>1962.0</v>
       </c>
       <c r="E164" t="s">
-        <v>104</v>
+        <v>91</v>
       </c>
     </row>
     <row r="165">
@@ -3360,7 +3339,7 @@
         <v>1963.0</v>
       </c>
       <c r="E165" t="s">
-        <v>105</v>
+        <v>92</v>
       </c>
     </row>
     <row r="166">
@@ -3377,7 +3356,7 @@
         <v>1964.0</v>
       </c>
       <c r="E166" t="s">
-        <v>106</v>
+        <v>93</v>
       </c>
     </row>
     <row r="167">
@@ -3394,7 +3373,7 @@
         <v>1965.0</v>
       </c>
       <c r="E167" t="s">
-        <v>107</v>
+        <v>94</v>
       </c>
     </row>
     <row r="168">
@@ -3411,7 +3390,7 @@
         <v>1966.0</v>
       </c>
       <c r="E168" t="s">
-        <v>108</v>
+        <v>95</v>
       </c>
     </row>
     <row r="169">
@@ -3428,7 +3407,7 @@
         <v>1967.0</v>
       </c>
       <c r="E169" t="s">
-        <v>109</v>
+        <v>96</v>
       </c>
     </row>
     <row r="170">
@@ -3445,7 +3424,7 @@
         <v>1968.0</v>
       </c>
       <c r="E170" t="s">
-        <v>110</v>
+        <v>97</v>
       </c>
     </row>
     <row r="171">
@@ -3462,7 +3441,7 @@
         <v>1969.0</v>
       </c>
       <c r="E171" t="s">
-        <v>111</v>
+        <v>98</v>
       </c>
     </row>
     <row r="172">
@@ -3479,7 +3458,7 @@
         <v>1970.0</v>
       </c>
       <c r="E172" t="s">
-        <v>112</v>
+        <v>99</v>
       </c>
     </row>
     <row r="173">
@@ -3496,7 +3475,7 @@
         <v>1971.0</v>
       </c>
       <c r="E173" t="s">
-        <v>113</v>
+        <v>100</v>
       </c>
     </row>
     <row r="174">
@@ -3513,7 +3492,7 @@
         <v>1972.0</v>
       </c>
       <c r="E174" t="s">
-        <v>114</v>
+        <v>101</v>
       </c>
     </row>
     <row r="175">
@@ -3530,7 +3509,7 @@
         <v>1973.0</v>
       </c>
       <c r="E175" t="s">
-        <v>115</v>
+        <v>102</v>
       </c>
     </row>
     <row r="176">
@@ -3547,7 +3526,7 @@
         <v>1974.0</v>
       </c>
       <c r="E176" t="s">
-        <v>116</v>
+        <v>103</v>
       </c>
     </row>
     <row r="177">
@@ -3564,7 +3543,7 @@
         <v>1975.0</v>
       </c>
       <c r="E177" t="s">
-        <v>117</v>
+        <v>104</v>
       </c>
     </row>
     <row r="178">
@@ -3581,7 +3560,7 @@
         <v>1976.0</v>
       </c>
       <c r="E178" t="s">
-        <v>118</v>
+        <v>105</v>
       </c>
     </row>
     <row r="179">
@@ -3598,7 +3577,7 @@
         <v>1977.0</v>
       </c>
       <c r="E179" t="s">
-        <v>119</v>
+        <v>106</v>
       </c>
     </row>
     <row r="180">
@@ -3615,7 +3594,7 @@
         <v>1978.0</v>
       </c>
       <c r="E180" t="s">
-        <v>120</v>
+        <v>107</v>
       </c>
     </row>
     <row r="181">
@@ -3632,7 +3611,7 @@
         <v>1979.0</v>
       </c>
       <c r="E181" t="s">
-        <v>121</v>
+        <v>108</v>
       </c>
     </row>
     <row r="182">
@@ -3649,7 +3628,7 @@
         <v>1980.0</v>
       </c>
       <c r="E182" t="s">
-        <v>122</v>
+        <v>109</v>
       </c>
     </row>
     <row r="183">
@@ -3666,7 +3645,7 @@
         <v>1981.0</v>
       </c>
       <c r="E183" t="s">
-        <v>123</v>
+        <v>110</v>
       </c>
     </row>
     <row r="184">
@@ -3683,7 +3662,7 @@
         <v>1982.0</v>
       </c>
       <c r="E184" t="s">
-        <v>124</v>
+        <v>111</v>
       </c>
     </row>
     <row r="185">
@@ -3700,7 +3679,7 @@
         <v>1983.0</v>
       </c>
       <c r="E185" t="s">
-        <v>125</v>
+        <v>112</v>
       </c>
     </row>
     <row r="186">
@@ -3717,7 +3696,7 @@
         <v>1984.0</v>
       </c>
       <c r="E186" t="s">
-        <v>126</v>
+        <v>113</v>
       </c>
     </row>
     <row r="187">
@@ -3734,7 +3713,7 @@
         <v>1985.0</v>
       </c>
       <c r="E187" t="s">
-        <v>127</v>
+        <v>114</v>
       </c>
     </row>
     <row r="188">
@@ -3751,7 +3730,7 @@
         <v>1986.0</v>
       </c>
       <c r="E188" t="s">
-        <v>128</v>
+        <v>115</v>
       </c>
     </row>
     <row r="189">
@@ -3768,7 +3747,7 @@
         <v>1987.0</v>
       </c>
       <c r="E189" t="s">
-        <v>129</v>
+        <v>116</v>
       </c>
     </row>
     <row r="190">
@@ -3785,7 +3764,7 @@
         <v>1988.0</v>
       </c>
       <c r="E190" t="s">
-        <v>130</v>
+        <v>117</v>
       </c>
     </row>
     <row r="191">
@@ -3802,7 +3781,7 @@
         <v>1989.0</v>
       </c>
       <c r="E191" t="s">
-        <v>131</v>
+        <v>118</v>
       </c>
     </row>
     <row r="192">
@@ -3819,7 +3798,7 @@
         <v>1990.0</v>
       </c>
       <c r="E192" t="s">
-        <v>132</v>
+        <v>119</v>
       </c>
     </row>
     <row r="193">
@@ -3836,7 +3815,7 @@
         <v>1991.0</v>
       </c>
       <c r="E193" t="s">
-        <v>133</v>
+        <v>120</v>
       </c>
     </row>
     <row r="194">
@@ -3853,7 +3832,7 @@
         <v>1992.0</v>
       </c>
       <c r="E194" t="s">
-        <v>134</v>
+        <v>121</v>
       </c>
     </row>
     <row r="195">
@@ -3870,7 +3849,7 @@
         <v>1993.0</v>
       </c>
       <c r="E195" t="s">
-        <v>135</v>
+        <v>122</v>
       </c>
     </row>
     <row r="196">
@@ -3887,7 +3866,7 @@
         <v>1994.0</v>
       </c>
       <c r="E196" t="s">
-        <v>136</v>
+        <v>123</v>
       </c>
     </row>
     <row r="197">
@@ -3904,7 +3883,7 @@
         <v>1995.0</v>
       </c>
       <c r="E197" t="s">
-        <v>137</v>
+        <v>124</v>
       </c>
     </row>
     <row r="198">
@@ -3921,7 +3900,7 @@
         <v>1996.0</v>
       </c>
       <c r="E198" t="s">
-        <v>138</v>
+        <v>125</v>
       </c>
     </row>
     <row r="199">
@@ -3938,7 +3917,7 @@
         <v>1997.0</v>
       </c>
       <c r="E199" t="s">
-        <v>139</v>
+        <v>126</v>
       </c>
     </row>
     <row r="200">
@@ -3955,7 +3934,7 @@
         <v>1998.0</v>
       </c>
       <c r="E200" t="s">
-        <v>140</v>
+        <v>127</v>
       </c>
     </row>
     <row r="201">
@@ -3972,7 +3951,7 @@
         <v>1999.0</v>
       </c>
       <c r="E201" t="s">
-        <v>141</v>
+        <v>128</v>
       </c>
     </row>
     <row r="202">
@@ -3989,7 +3968,7 @@
         <v>2000.0</v>
       </c>
       <c r="E202" t="s">
-        <v>142</v>
+        <v>129</v>
       </c>
     </row>
     <row r="203">
@@ -4006,7 +3985,7 @@
         <v>2001.0</v>
       </c>
       <c r="E203" t="s">
-        <v>143</v>
+        <v>130</v>
       </c>
     </row>
     <row r="204">
@@ -4023,7 +4002,7 @@
         <v>2002.0</v>
       </c>
       <c r="E204" t="s">
-        <v>144</v>
+        <v>131</v>
       </c>
     </row>
     <row r="205">
@@ -4040,7 +4019,7 @@
         <v>2003.0</v>
       </c>
       <c r="E205" t="s">
-        <v>145</v>
+        <v>132</v>
       </c>
     </row>
     <row r="206">
@@ -4057,7 +4036,7 @@
         <v>2004.0</v>
       </c>
       <c r="E206" t="s">
-        <v>146</v>
+        <v>133</v>
       </c>
     </row>
     <row r="207">
@@ -4074,7 +4053,7 @@
         <v>2005.0</v>
       </c>
       <c r="E207" t="s">
-        <v>147</v>
+        <v>134</v>
       </c>
     </row>
     <row r="208">
@@ -4091,7 +4070,7 @@
         <v>2006.0</v>
       </c>
       <c r="E208" t="s">
-        <v>148</v>
+        <v>135</v>
       </c>
     </row>
     <row r="209">
@@ -4108,7 +4087,7 @@
         <v>2007.0</v>
       </c>
       <c r="E209" t="s">
-        <v>149</v>
+        <v>136</v>
       </c>
     </row>
     <row r="210">
@@ -4125,7 +4104,7 @@
         <v>2008.0</v>
       </c>
       <c r="E210" t="s">
-        <v>150</v>
+        <v>137</v>
       </c>
     </row>
     <row r="211">
@@ -4142,7 +4121,7 @@
         <v>2009.0</v>
       </c>
       <c r="E211" t="s">
-        <v>151</v>
+        <v>138</v>
       </c>
     </row>
     <row r="212">
@@ -4159,7 +4138,109 @@
         <v>2010.0</v>
       </c>
       <c r="E212" t="s">
-        <v>152</v>
+        <v>139</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="n">
+        <v>170.0</v>
+      </c>
+      <c r="B213" t="s">
+        <v>5</v>
+      </c>
+      <c r="C213" t="s">
+        <v>6</v>
+      </c>
+      <c r="D213" t="n">
+        <v>2011.0</v>
+      </c>
+      <c r="E213" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="n">
+        <v>170.0</v>
+      </c>
+      <c r="B214" t="s">
+        <v>5</v>
+      </c>
+      <c r="C214" t="s">
+        <v>6</v>
+      </c>
+      <c r="D214" t="n">
+        <v>2012.0</v>
+      </c>
+      <c r="E214" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="n">
+        <v>170.0</v>
+      </c>
+      <c r="B215" t="s">
+        <v>5</v>
+      </c>
+      <c r="C215" t="s">
+        <v>6</v>
+      </c>
+      <c r="D215" t="n">
+        <v>2013.0</v>
+      </c>
+      <c r="E215" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="n">
+        <v>170.0</v>
+      </c>
+      <c r="B216" t="s">
+        <v>5</v>
+      </c>
+      <c r="C216" t="s">
+        <v>6</v>
+      </c>
+      <c r="D216" t="n">
+        <v>2014.0</v>
+      </c>
+      <c r="E216" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="n">
+        <v>170.0</v>
+      </c>
+      <c r="B217" t="s">
+        <v>5</v>
+      </c>
+      <c r="C217" t="s">
+        <v>6</v>
+      </c>
+      <c r="D217" t="n">
+        <v>2015.0</v>
+      </c>
+      <c r="E217" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="n">
+        <v>170.0</v>
+      </c>
+      <c r="B218" t="s">
+        <v>5</v>
+      </c>
+      <c r="C218" t="s">
+        <v>6</v>
+      </c>
+      <c r="D218" t="n">
+        <v>2016.0</v>
+      </c>
+      <c r="E218" t="s">
+        <v>145</v>
       </c>
     </row>
   </sheetData>
@@ -4177,50 +4258,50 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="B1" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="B2" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="B3" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="B4" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="B5" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="B6" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
     </row>
   </sheetData>
